--- a/docs/TCS Test Management Plan.xlsx
+++ b/docs/TCS Test Management Plan.xlsx
@@ -52,9 +52,6 @@
   <si>
     <t xml:space="preserve">Manual
 </t>
-  </si>
-  <si>
-    <t>Queue Data persists Through the RabbitMQ Container being destroyed</t>
   </si>
   <si>
     <t>Queue Data persists if a message is not acked.</t>
@@ -675,9 +672,6 @@
     </r>
   </si>
   <si>
-    <t>PBX Reconnects to TCS After Lost Link</t>
-  </si>
-  <si>
     <t>Record SMDR Messages to the Database</t>
   </si>
   <si>
@@ -733,7 +727,13 @@
     </r>
   </si>
   <si>
-    <t>1 =&gt; Must be carried out during version upgrades; 2 =&gt; Optional.</t>
+    <t>Priority 1 =&gt; Must be carried out during version upgrades; Priority 2 =&gt; Optional.</t>
+  </si>
+  <si>
+    <t>TCS Reconnects to PBX After Lost Link</t>
+  </si>
+  <si>
+    <t>Queue Data persists through the RabbitMQ Container being removed and then restarted.</t>
   </si>
 </sst>
 </file>
@@ -795,7 +795,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -823,6 +823,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1104,13 +1107,14 @@
   <dimension ref="A1:AA1007"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="133" zoomScalePageLayoutView="133" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="41.5" style="9" customWidth="1"/>
-    <col min="2" max="3" width="14.5" style="8"/>
+    <col min="2" max="2" width="14.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="8"/>
     <col min="4" max="4" width="54" customWidth="1"/>
     <col min="5" max="5" width="43.6640625" customWidth="1"/>
   </cols>
@@ -1120,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -1129,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -1154,10 +1158,10 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2" spans="1:27" ht="30" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:27" ht="18" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
-      <c r="B2" s="5" t="s">
-        <v>52</v>
+      <c r="B2" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1187,7 +1191,7 @@
     </row>
     <row r="3" spans="1:27" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="5"/>
@@ -1218,7 +1222,7 @@
     </row>
     <row r="4" spans="1:27" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="7">
         <v>1</v>
@@ -1227,10 +1231,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -1257,7 +1261,7 @@
     </row>
     <row r="5" spans="1:27" s="9" customFormat="1" ht="52" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B5" s="7">
         <v>1</v>
@@ -1266,10 +1270,10 @@
         <v>5</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -1296,7 +1300,7 @@
     </row>
     <row r="6" spans="1:27" s="9" customFormat="1" ht="52" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B6" s="7">
         <v>1</v>
@@ -1305,10 +1309,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -1375,10 +1379,10 @@
         <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -1414,10 +1418,10 @@
         <v>7</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -1444,7 +1448,7 @@
     </row>
     <row r="10" spans="1:27" s="9" customFormat="1" ht="52" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="B10" s="7">
         <v>1</v>
@@ -1453,10 +1457,10 @@
         <v>5</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -1483,7 +1487,7 @@
     </row>
     <row r="11" spans="1:27" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="7">
         <v>1</v>
@@ -1492,10 +1496,10 @@
         <v>5</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -1522,7 +1526,7 @@
     </row>
     <row r="12" spans="1:27" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1553,7 +1557,7 @@
     </row>
     <row r="13" spans="1:27" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B13" s="7">
         <v>1</v>
@@ -1562,10 +1566,10 @@
         <v>5</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -1592,7 +1596,7 @@
     </row>
     <row r="14" spans="1:27" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1623,7 +1627,7 @@
     </row>
     <row r="15" spans="1:27" s="9" customFormat="1" ht="52" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="7">
         <v>1</v>
@@ -1632,10 +1636,10 @@
         <v>5</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -1662,7 +1666,7 @@
     </row>
     <row r="16" spans="1:27" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1693,7 +1697,7 @@
     </row>
     <row r="17" spans="1:27" s="9" customFormat="1" ht="119" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="7">
         <v>2</v>
@@ -1702,10 +1706,10 @@
         <v>7</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -1732,7 +1736,7 @@
     </row>
     <row r="18" spans="1:27" s="9" customFormat="1" ht="91" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="7">
         <v>1</v>
@@ -1741,10 +1745,10 @@
         <v>7</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -1771,7 +1775,7 @@
     </row>
     <row r="19" spans="1:27" s="9" customFormat="1" ht="32" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1802,7 +1806,7 @@
     </row>
     <row r="20" spans="1:27" s="9" customFormat="1" ht="65" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="7">
         <v>1</v>
@@ -1811,10 +1815,10 @@
         <v>7</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -1841,7 +1845,7 @@
     </row>
     <row r="21" spans="1:27" s="9" customFormat="1" ht="65" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" s="7">
         <v>1</v>
@@ -1850,10 +1854,10 @@
         <v>7</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>

--- a/docs/TCS Test Management Plan.xlsx
+++ b/docs/TCS Test Management Plan.xlsx
@@ -41,20 +41,11 @@
     <t>Queuing Tests</t>
   </si>
   <si>
-    <t>Queue data Persists Through a TCS Shutdown</t>
-  </si>
-  <si>
     <t>Jenkins</t>
-  </si>
-  <si>
-    <t>Queue Data persists Through an OS Reboot</t>
   </si>
   <si>
     <t xml:space="preserve">Manual
 </t>
-  </si>
-  <si>
-    <t>Queue Data persists if a message is not acked.</t>
   </si>
   <si>
     <t>PBX Interface Tests</t>
@@ -733,7 +724,16 @@
     <t>TCS Reconnects to PBX After Lost Link</t>
   </si>
   <si>
-    <t>Queue Data persists through the RabbitMQ Container being removed and then restarted.</t>
+    <t>Queue Data Survives a TCS Restart</t>
+  </si>
+  <si>
+    <t>Queue Data Survives an OS Reboot</t>
+  </si>
+  <si>
+    <t>Queue Data Survives a RabbitMQ Restart</t>
+  </si>
+  <si>
+    <t>Unacked Queue Data Survives</t>
   </si>
 </sst>
 </file>
@@ -1107,7 +1107,7 @@
   <dimension ref="A1:AA1007"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="133" zoomScalePageLayoutView="133" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1124,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -1133,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -1161,7 +1161,7 @@
     <row r="2" spans="1:27" ht="18" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="3" spans="1:27" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="5"/>
@@ -1222,19 +1222,19 @@
     </row>
     <row r="4" spans="1:27" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B4" s="7">
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -1261,19 +1261,19 @@
     </row>
     <row r="5" spans="1:27" s="9" customFormat="1" ht="52" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B5" s="7">
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -1300,19 +1300,19 @@
     </row>
     <row r="6" spans="1:27" s="9" customFormat="1" ht="52" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B6" s="7">
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -1370,19 +1370,19 @@
     </row>
     <row r="8" spans="1:27" s="9" customFormat="1" ht="78" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="B8" s="7">
         <v>2</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -1409,19 +1409,19 @@
     </row>
     <row r="9" spans="1:27" s="9" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B9" s="7">
         <v>2</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -1448,19 +1448,19 @@
     </row>
     <row r="10" spans="1:27" s="9" customFormat="1" ht="52" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="7">
         <v>1</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -1487,19 +1487,19 @@
     </row>
     <row r="11" spans="1:27" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="B11" s="7">
         <v>1</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="12" spans="1:27" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1557,19 +1557,19 @@
     </row>
     <row r="13" spans="1:27" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B13" s="7">
         <v>1</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="14" spans="1:27" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1627,19 +1627,19 @@
     </row>
     <row r="15" spans="1:27" s="9" customFormat="1" ht="52" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B15" s="7">
         <v>1</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="16" spans="1:27" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1697,19 +1697,19 @@
     </row>
     <row r="17" spans="1:27" s="9" customFormat="1" ht="119" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B17" s="7">
         <v>2</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -1736,19 +1736,19 @@
     </row>
     <row r="18" spans="1:27" s="9" customFormat="1" ht="91" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B18" s="7">
         <v>1</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="19" spans="1:27" s="9" customFormat="1" ht="32" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1806,19 +1806,19 @@
     </row>
     <row r="20" spans="1:27" s="9" customFormat="1" ht="65" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B20" s="7">
         <v>1</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -1845,19 +1845,19 @@
     </row>
     <row r="21" spans="1:27" s="9" customFormat="1" ht="65" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B21" s="7">
         <v>1</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>

--- a/docs/TCS Test Management Plan.xlsx
+++ b/docs/TCS Test Management Plan.xlsx
@@ -724,16 +724,16 @@
     <t>TCS Reconnects to PBX After Lost Link</t>
   </si>
   <si>
-    <t>Queue Data Survives a TCS Restart</t>
+    <t>Unacked Queue Data Survives</t>
   </si>
   <si>
-    <t>Queue Data Survives an OS Reboot</t>
+    <t>Queue Data Survives TCS Restart</t>
   </si>
   <si>
-    <t>Queue Data Survives a RabbitMQ Restart</t>
+    <t>Queue Data Survives OS Reboot</t>
   </si>
   <si>
-    <t>Unacked Queue Data Survives</t>
+    <t>Queue Data Survives RabbitMQ Restart</t>
   </si>
 </sst>
 </file>
@@ -1370,7 +1370,7 @@
     </row>
     <row r="8" spans="1:27" s="9" customFormat="1" ht="78" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B8" s="7">
         <v>2</v>
@@ -1409,7 +1409,7 @@
     </row>
     <row r="9" spans="1:27" s="9" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="7">
         <v>2</v>
@@ -1448,7 +1448,7 @@
     </row>
     <row r="10" spans="1:27" s="9" customFormat="1" ht="52" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B10" s="7">
         <v>1</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="11" spans="1:27" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B11" s="7">
         <v>1</v>
